--- a/NformTester/NformTester/keywordscripts/TST969_AddAndCopyView.xlsx
+++ b/NformTester/NformTester/keywordscripts/TST969_AddAndCopyView.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="270" yWindow="2535" windowWidth="18195" windowHeight="14070"/>
+    <workbookView xWindow="270" yWindow="2535" windowWidth="15480" windowHeight="11640"/>
   </bookViews>
   <sheets>
     <sheet name="Scripts" sheetId="3" r:id="rId1"/>
@@ -4849,7 +4849,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O81"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>

--- a/NformTester/NformTester/keywordscripts/TST969_AddAndCopyView.xlsx
+++ b/NformTester/NformTester/keywordscripts/TST969_AddAndCopyView.xlsx
@@ -1259,7 +1259,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7932" uniqueCount="901">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7924" uniqueCount="899">
   <si>
     <t>FormLogin_to_LiebertR_Nform</t>
   </si>
@@ -3889,10 +3889,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>"View1"</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>"view1"</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -3957,22 +3953,10 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>View1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>HR_Dept</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>Copy Navigation View</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>"Viewb"</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>"view3"</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -3985,18 +3969,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>Viewb</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>DoubleClick</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Payrol_Dept</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>F</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -4005,18 +3977,10 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>$Image_File_Name$</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>C</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>$URI$</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>"Payrol Dept"</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -4037,12 +4001,40 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>"HR_Dept"</t>
+    <t>Running Range</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>"Payrol_Dept"</t>
+    <t>$Sys_Image_File_Name$</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$Sys_URI$</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Device_tree</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"view1"</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"HR Dept"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"viewb"</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"Payrol Dept"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"view1"</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4069,6 +4061,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -4081,6 +4074,7 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -4591,10 +4585,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N101"/>
+  <dimension ref="A1:N98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D31" workbookViewId="0">
-      <selection activeCell="D50" sqref="D50"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4604,6 +4598,8 @@
     <col min="5" max="5" width="42.625" customWidth="1"/>
     <col min="6" max="6" width="20.125" customWidth="1"/>
     <col min="7" max="7" width="24.25" customWidth="1"/>
+    <col min="8" max="8" width="20.125" customWidth="1"/>
+    <col min="9" max="9" width="25.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -4765,7 +4761,7 @@
         <v>845</v>
       </c>
       <c r="B6" s="10">
-        <v>41045</v>
+        <v>41449</v>
       </c>
       <c r="C6" s="3">
         <v>5</v>
@@ -4797,7 +4793,7 @@
         <v>812</v>
       </c>
       <c r="B7" s="6">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C7" s="3">
         <v>6</v>
@@ -4826,9 +4822,9 @@
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="2" t="s">
-        <v>851</v>
-      </c>
-      <c r="B8" s="6"/>
+        <v>890</v>
+      </c>
+      <c r="B8" s="9"/>
       <c r="C8" s="3">
         <v>7</v>
       </c>
@@ -4856,11 +4852,9 @@
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="2" t="s">
-        <v>813</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>814</v>
-      </c>
+        <v>851</v>
+      </c>
+      <c r="B9" s="6"/>
       <c r="C9" s="3">
         <v>8</v>
       </c>
@@ -4887,8 +4881,12 @@
       <c r="N9" s="5"/>
     </row>
     <row r="10" spans="1:14" ht="15">
-      <c r="A10" s="12"/>
-      <c r="B10" s="13"/>
+      <c r="A10" s="2" t="s">
+        <v>813</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>814</v>
+      </c>
       <c r="C10" s="3">
         <v>9</v>
       </c>
@@ -4907,10 +4905,8 @@
       <c r="N10" s="5"/>
     </row>
     <row r="11" spans="1:14">
-      <c r="A11" s="2" t="s">
-        <v>816</v>
-      </c>
-      <c r="B11" s="14"/>
+      <c r="A11" s="12"/>
+      <c r="B11" s="13"/>
       <c r="C11" s="3">
         <v>10</v>
       </c>
@@ -4936,7 +4932,7 @@
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="2" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B12" s="14"/>
       <c r="C12" s="3">
@@ -4964,7 +4960,7 @@
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="2" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B13" s="14"/>
       <c r="C13" s="3">
@@ -4992,7 +4988,7 @@
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="2" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B14" s="14"/>
       <c r="C14" s="3">
@@ -5011,7 +5007,7 @@
         <v>861</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>862</v>
+        <v>898</v>
       </c>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
@@ -5022,7 +5018,7 @@
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="2" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B15" s="14"/>
       <c r="C15" s="3">
@@ -5050,7 +5046,7 @@
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="2" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="B16" s="14"/>
       <c r="C16" s="3">
@@ -5069,7 +5065,7 @@
         <v>861</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
@@ -5079,10 +5075,10 @@
       <c r="N16" s="5"/>
     </row>
     <row r="17" spans="1:14">
-      <c r="A17" s="2"/>
-      <c r="B17" s="14" t="s">
-        <v>822</v>
-      </c>
+      <c r="A17" s="2" t="s">
+        <v>821</v>
+      </c>
+      <c r="B17" s="14"/>
       <c r="C17" s="3">
         <v>16</v>
       </c>
@@ -5113,7 +5109,7 @@
     <row r="18" spans="1:14">
       <c r="A18" s="2"/>
       <c r="B18" s="14" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="C18" s="3">
         <v>17</v>
@@ -5128,7 +5124,7 @@
         <v>676</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="H18" s="8"/>
       <c r="I18" s="3"/>
@@ -5139,11 +5135,9 @@
       <c r="N18" s="5"/>
     </row>
     <row r="19" spans="1:14">
-      <c r="A19" s="2" t="s">
-        <v>824</v>
-      </c>
+      <c r="A19" s="2"/>
       <c r="B19" s="14" t="s">
-        <v>814</v>
+        <v>823</v>
       </c>
       <c r="C19" s="3">
         <v>18</v>
@@ -5155,10 +5149,10 @@
         <v>860</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="H19" s="8"/>
       <c r="I19" s="3"/>
@@ -5170,9 +5164,11 @@
     </row>
     <row r="20" spans="1:14">
       <c r="A20" s="2" t="s">
-        <v>825</v>
-      </c>
-      <c r="B20" s="14"/>
+        <v>824</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>814</v>
+      </c>
       <c r="C20" s="3">
         <v>19</v>
       </c>
@@ -5180,7 +5176,7 @@
         <v>815</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="F20" s="8" t="s">
         <v>222</v>
@@ -5189,7 +5185,7 @@
         <v>861</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
@@ -5200,7 +5196,7 @@
     </row>
     <row r="21" spans="1:14">
       <c r="A21" s="2" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="B21" s="14"/>
       <c r="C21" s="3">
@@ -5210,7 +5206,7 @@
         <v>815</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="F21" s="8" t="s">
         <v>221</v>
@@ -5219,7 +5215,7 @@
         <v>861</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
@@ -5229,11 +5225,15 @@
       <c r="N21" s="5"/>
     </row>
     <row r="22" spans="1:14">
+      <c r="A22" s="2" t="s">
+        <v>826</v>
+      </c>
+      <c r="B22" s="14"/>
       <c r="C22" s="3">
         <v>21</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>892</v>
+        <v>884</v>
       </c>
       <c r="E22" s="8" t="s">
         <v>842</v>
@@ -5258,7 +5258,7 @@
         <v>815</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="F23" s="8" t="s">
         <v>679</v>
@@ -5282,7 +5282,7 @@
         <v>815</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="F24" s="8" t="s">
         <v>679</v>
@@ -5308,13 +5308,13 @@
         <v>815</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="F25" s="8" t="s">
         <v>345</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="H25" s="8"/>
       <c r="I25" s="3"/>
@@ -5332,13 +5332,13 @@
         <v>815</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="G26" s="8" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="H26" s="8"/>
       <c r="I26" s="3"/>
@@ -5389,7 +5389,7 @@
         <v>861</v>
       </c>
       <c r="H28" s="8" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
@@ -5439,7 +5439,7 @@
         <v>861</v>
       </c>
       <c r="H30" s="8" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="I30" s="3"/>
       <c r="J30" s="3"/>
@@ -5453,7 +5453,7 @@
         <v>30</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>895</v>
+        <v>886</v>
       </c>
       <c r="E31" s="8" t="s">
         <v>842</v>
@@ -5484,7 +5484,7 @@
         <v>599</v>
       </c>
       <c r="G32" s="8" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="H32" s="8"/>
       <c r="I32" s="3"/>
@@ -5508,7 +5508,7 @@
         <v>17</v>
       </c>
       <c r="G33" s="8" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="H33" s="8"/>
       <c r="I33" s="3"/>
@@ -5526,13 +5526,13 @@
         <v>815</v>
       </c>
       <c r="E34" s="8" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="F34" s="8" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="G34" s="8" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="H34" s="8"/>
       <c r="I34" s="3"/>
@@ -5553,10 +5553,10 @@
         <v>860</v>
       </c>
       <c r="F35" s="8" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="G35" s="8" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="H35" s="8"/>
       <c r="I35" s="3"/>
@@ -5599,10 +5599,10 @@
         <v>859</v>
       </c>
       <c r="F37" s="8" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="G37" s="8" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="H37" s="8"/>
       <c r="I37" s="3"/>
@@ -5617,10 +5617,10 @@
         <v>37</v>
       </c>
       <c r="D38" s="16" t="s">
+        <v>872</v>
+      </c>
+      <c r="E38" s="17" t="s">
         <v>873</v>
-      </c>
-      <c r="E38" s="17" t="s">
-        <v>874</v>
       </c>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
@@ -5661,7 +5661,7 @@
         <v>39</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="E40" s="3" t="s">
         <v>856</v>
@@ -5685,18 +5685,20 @@
         <v>40</v>
       </c>
       <c r="D41" s="7" t="s">
+        <v>874</v>
+      </c>
+      <c r="E41" s="8" t="s">
         <v>875</v>
       </c>
-      <c r="E41" s="8" t="s">
-        <v>876</v>
-      </c>
       <c r="F41" s="8" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="G41" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="H41" s="8"/>
+        <v>56</v>
+      </c>
+      <c r="H41" s="8" t="s">
+        <v>836</v>
+      </c>
       <c r="I41" s="3"/>
       <c r="J41" s="3"/>
       <c r="K41" s="3"/>
@@ -5709,10 +5711,10 @@
         <v>41</v>
       </c>
       <c r="D42" s="7" t="s">
+        <v>874</v>
+      </c>
+      <c r="E42" s="8" t="s">
         <v>875</v>
-      </c>
-      <c r="E42" s="8" t="s">
-        <v>876</v>
       </c>
       <c r="F42" s="8" t="s">
         <v>288</v>
@@ -5733,10 +5735,10 @@
         <v>42</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="E43" s="8" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="F43" s="8" t="s">
         <v>306</v>
@@ -5745,7 +5747,7 @@
         <v>13</v>
       </c>
       <c r="H43" s="8" t="s">
-        <v>862</v>
+        <v>894</v>
       </c>
       <c r="I43" s="3"/>
       <c r="J43" s="3"/>
@@ -5759,13 +5761,13 @@
         <v>43</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="E44" s="8" t="s">
         <v>298</v>
       </c>
       <c r="F44" s="8" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="G44" s="8" t="s">
         <v>2</v>
@@ -5783,13 +5785,13 @@
         <v>44</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="E45" s="8" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="F45" s="8" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="G45" s="8" t="s">
         <v>2</v>
@@ -5807,13 +5809,13 @@
         <v>45</v>
       </c>
       <c r="D46" s="7" t="s">
+        <v>874</v>
+      </c>
+      <c r="E46" s="8" t="s">
         <v>875</v>
       </c>
-      <c r="E46" s="8" t="s">
-        <v>876</v>
-      </c>
       <c r="F46" s="8" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="G46" s="8" t="s">
         <v>2</v>
@@ -5831,7 +5833,7 @@
         <v>46</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>856</v>
@@ -5855,19 +5857,23 @@
         <v>47</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="E48" s="3" t="s">
         <v>856</v>
       </c>
       <c r="F48" s="8" t="s">
-        <v>879</v>
+        <v>893</v>
       </c>
       <c r="G48" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="H48" s="8"/>
-      <c r="I48" s="3"/>
+        <v>56</v>
+      </c>
+      <c r="H48" s="8">
+        <v>1</v>
+      </c>
+      <c r="I48" s="8" t="s">
+        <v>894</v>
+      </c>
       <c r="J48" s="3"/>
       <c r="K48" s="3"/>
       <c r="L48" s="3"/>
@@ -5879,65 +5885,65 @@
         <v>48</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="E49" s="3" t="s">
         <v>856</v>
       </c>
-      <c r="F49" s="8" t="s">
-        <v>880</v>
+      <c r="F49" s="3" t="s">
+        <v>102</v>
       </c>
       <c r="G49" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="H49" s="8"/>
-      <c r="I49" s="3"/>
+        <v>56</v>
+      </c>
+      <c r="H49" s="8">
+        <v>2</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>895</v>
+      </c>
       <c r="J49" s="3"/>
       <c r="K49" s="3"/>
       <c r="L49" s="3"/>
       <c r="M49" s="3"/>
       <c r="N49" s="5"/>
     </row>
-    <row r="50" spans="3:14">
+    <row r="50" spans="3:14" ht="15">
       <c r="C50" s="3">
         <v>49</v>
       </c>
-      <c r="D50" s="7" t="s">
-        <v>873</v>
-      </c>
-      <c r="E50" s="3" t="s">
-        <v>856</v>
-      </c>
-      <c r="F50" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="G50" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="H50" s="8">
-        <v>2</v>
-      </c>
-      <c r="I50" s="3" t="s">
-        <v>899</v>
-      </c>
+      <c r="D50" s="16" t="s">
+        <v>872</v>
+      </c>
+      <c r="E50" s="17" t="s">
+        <v>878</v>
+      </c>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c r="H50" s="8"/>
+      <c r="I50" s="3"/>
       <c r="J50" s="3"/>
       <c r="K50" s="3"/>
       <c r="L50" s="3"/>
       <c r="M50" s="3"/>
       <c r="N50" s="5"/>
     </row>
-    <row r="51" spans="3:14" ht="15">
+    <row r="51" spans="3:14">
       <c r="C51" s="3">
         <v>50</v>
       </c>
-      <c r="D51" s="16" t="s">
-        <v>873</v>
-      </c>
-      <c r="E51" s="17" t="s">
-        <v>881</v>
-      </c>
-      <c r="F51" s="8"/>
-      <c r="G51" s="8"/>
+      <c r="D51" s="7" t="s">
+        <v>815</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>856</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>857</v>
+      </c>
+      <c r="G51" s="8" t="s">
+        <v>2</v>
+      </c>
       <c r="H51" s="8"/>
       <c r="I51" s="3"/>
       <c r="J51" s="3"/>
@@ -5957,7 +5963,7 @@
         <v>856</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="G52" s="8" t="s">
         <v>2</v>
@@ -5977,11 +5983,11 @@
       <c r="D53" s="7" t="s">
         <v>815</v>
       </c>
-      <c r="E53" s="3" t="s">
-        <v>856</v>
-      </c>
-      <c r="F53" s="3" t="s">
-        <v>858</v>
+      <c r="E53" s="8" t="s">
+        <v>859</v>
+      </c>
+      <c r="F53" s="8" t="s">
+        <v>668</v>
       </c>
       <c r="G53" s="8" t="s">
         <v>2</v>
@@ -6005,7 +6011,7 @@
         <v>859</v>
       </c>
       <c r="F54" s="8" t="s">
-        <v>668</v>
+        <v>349</v>
       </c>
       <c r="G54" s="8" t="s">
         <v>2</v>
@@ -6026,15 +6032,17 @@
         <v>815</v>
       </c>
       <c r="E55" s="8" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="F55" s="8" t="s">
-        <v>349</v>
+        <v>222</v>
       </c>
       <c r="G55" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="H55" s="8"/>
+        <v>861</v>
+      </c>
+      <c r="H55" s="8" t="s">
+        <v>896</v>
+      </c>
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
@@ -6053,13 +6061,13 @@
         <v>860</v>
       </c>
       <c r="F56" s="8" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G56" s="8" t="s">
         <v>861</v>
       </c>
       <c r="H56" s="8" t="s">
-        <v>882</v>
+        <v>879</v>
       </c>
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
@@ -6079,15 +6087,17 @@
         <v>860</v>
       </c>
       <c r="F57" s="8" t="s">
-        <v>221</v>
+        <v>671</v>
       </c>
       <c r="G57" s="8" t="s">
-        <v>861</v>
-      </c>
-      <c r="H57" s="8" t="s">
-        <v>883</v>
-      </c>
-      <c r="I57" s="3"/>
+        <v>58</v>
+      </c>
+      <c r="H57" s="8">
+        <v>1</v>
+      </c>
+      <c r="I57" s="3">
+        <v>0</v>
+      </c>
       <c r="J57" s="3"/>
       <c r="K57" s="3"/>
       <c r="L57" s="3"/>
@@ -6105,17 +6115,13 @@
         <v>860</v>
       </c>
       <c r="F58" s="8" t="s">
-        <v>671</v>
+        <v>676</v>
       </c>
       <c r="G58" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="H58" s="8">
-        <v>1</v>
-      </c>
-      <c r="I58" s="3">
-        <v>0</v>
-      </c>
+        <v>863</v>
+      </c>
+      <c r="H58" s="8"/>
+      <c r="I58" s="3"/>
       <c r="J58" s="3"/>
       <c r="K58" s="3"/>
       <c r="L58" s="3"/>
@@ -6133,10 +6139,10 @@
         <v>860</v>
       </c>
       <c r="F59" s="8" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="G59" s="8" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="H59" s="8"/>
       <c r="I59" s="3"/>
@@ -6157,10 +6163,10 @@
         <v>860</v>
       </c>
       <c r="F60" s="8" t="s">
-        <v>677</v>
+        <v>349</v>
       </c>
       <c r="G60" s="8" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="H60" s="8"/>
       <c r="I60" s="3"/>
@@ -6178,15 +6184,17 @@
         <v>815</v>
       </c>
       <c r="E61" s="8" t="s">
-        <v>860</v>
+        <v>865</v>
       </c>
       <c r="F61" s="8" t="s">
-        <v>349</v>
+        <v>222</v>
       </c>
       <c r="G61" s="8" t="s">
-        <v>864</v>
-      </c>
-      <c r="H61" s="8"/>
+        <v>861</v>
+      </c>
+      <c r="H61" s="8" t="s">
+        <v>885</v>
+      </c>
       <c r="I61" s="3"/>
       <c r="J61" s="3"/>
       <c r="K61" s="3"/>
@@ -6202,16 +6210,16 @@
         <v>815</v>
       </c>
       <c r="E62" s="8" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="F62" s="8" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G62" s="8" t="s">
         <v>861</v>
       </c>
       <c r="H62" s="8" t="s">
-        <v>894</v>
+        <v>880</v>
       </c>
       <c r="I62" s="3"/>
       <c r="J62" s="3"/>
@@ -6228,17 +6236,15 @@
         <v>815</v>
       </c>
       <c r="E63" s="8" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="F63" s="8" t="s">
-        <v>221</v>
+        <v>17</v>
       </c>
       <c r="G63" s="8" t="s">
-        <v>861</v>
-      </c>
-      <c r="H63" s="8" t="s">
-        <v>884</v>
-      </c>
+        <v>863</v>
+      </c>
+      <c r="H63" s="8"/>
       <c r="I63" s="3"/>
       <c r="J63" s="3"/>
       <c r="K63" s="3"/>
@@ -6254,16 +6260,20 @@
         <v>815</v>
       </c>
       <c r="E64" s="8" t="s">
-        <v>866</v>
+        <v>860</v>
       </c>
       <c r="F64" s="8" t="s">
-        <v>17</v>
+        <v>671</v>
       </c>
       <c r="G64" s="8" t="s">
-        <v>864</v>
-      </c>
-      <c r="H64" s="8"/>
-      <c r="I64" s="3"/>
+        <v>58</v>
+      </c>
+      <c r="H64" s="8">
+        <v>1</v>
+      </c>
+      <c r="I64" s="3">
+        <v>0</v>
+      </c>
       <c r="J64" s="3"/>
       <c r="K64" s="3"/>
       <c r="L64" s="3"/>
@@ -6281,17 +6291,13 @@
         <v>860</v>
       </c>
       <c r="F65" s="8" t="s">
-        <v>671</v>
+        <v>881</v>
       </c>
       <c r="G65" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="H65" s="8">
-        <v>1</v>
-      </c>
-      <c r="I65" s="3">
-        <v>0</v>
-      </c>
+        <v>863</v>
+      </c>
+      <c r="H65" s="8"/>
+      <c r="I65" s="3"/>
       <c r="J65" s="3"/>
       <c r="K65" s="3"/>
       <c r="L65" s="3"/>
@@ -6309,13 +6315,17 @@
         <v>860</v>
       </c>
       <c r="F66" s="8" t="s">
-        <v>885</v>
+        <v>671</v>
       </c>
       <c r="G66" s="8" t="s">
-        <v>864</v>
-      </c>
-      <c r="H66" s="8"/>
-      <c r="I66" s="3"/>
+        <v>58</v>
+      </c>
+      <c r="H66" s="8">
+        <v>1</v>
+      </c>
+      <c r="I66" s="3">
+        <v>0</v>
+      </c>
       <c r="J66" s="3"/>
       <c r="K66" s="3"/>
       <c r="L66" s="3"/>
@@ -6333,17 +6343,13 @@
         <v>860</v>
       </c>
       <c r="F67" s="8" t="s">
-        <v>671</v>
+        <v>881</v>
       </c>
       <c r="G67" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="H67" s="8">
-        <v>1</v>
-      </c>
-      <c r="I67" s="3">
-        <v>0</v>
-      </c>
+        <v>863</v>
+      </c>
+      <c r="H67" s="8"/>
+      <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
@@ -6361,10 +6367,10 @@
         <v>860</v>
       </c>
       <c r="F68" s="8" t="s">
-        <v>885</v>
+        <v>870</v>
       </c>
       <c r="G68" s="8" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="H68" s="8"/>
       <c r="I68" s="3"/>
@@ -6382,13 +6388,13 @@
         <v>815</v>
       </c>
       <c r="E69" s="8" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="F69" s="8" t="s">
         <v>871</v>
       </c>
       <c r="G69" s="8" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="H69" s="8"/>
       <c r="I69" s="3"/>
@@ -6398,22 +6404,18 @@
       <c r="M69" s="3"/>
       <c r="N69" s="5"/>
     </row>
-    <row r="70" spans="3:14">
+    <row r="70" spans="3:14" ht="15">
       <c r="C70" s="3">
         <v>69</v>
       </c>
-      <c r="D70" s="7" t="s">
-        <v>815</v>
-      </c>
-      <c r="E70" s="8" t="s">
-        <v>859</v>
-      </c>
-      <c r="F70" s="8" t="s">
+      <c r="D70" s="16" t="s">
         <v>872</v>
       </c>
-      <c r="G70" s="8" t="s">
-        <v>864</v>
-      </c>
+      <c r="E70" s="17" t="s">
+        <v>873</v>
+      </c>
+      <c r="F70" s="8"/>
+      <c r="G70" s="8"/>
       <c r="H70" s="8"/>
       <c r="I70" s="3"/>
       <c r="J70" s="3"/>
@@ -6422,18 +6424,22 @@
       <c r="M70" s="3"/>
       <c r="N70" s="5"/>
     </row>
-    <row r="71" spans="3:14" ht="15">
+    <row r="71" spans="3:14">
       <c r="C71" s="3">
         <v>70</v>
       </c>
-      <c r="D71" s="16" t="s">
-        <v>873</v>
-      </c>
-      <c r="E71" s="17" t="s">
-        <v>874</v>
-      </c>
-      <c r="F71" s="8"/>
-      <c r="G71" s="8"/>
+      <c r="D71" s="7" t="s">
+        <v>815</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>856</v>
+      </c>
+      <c r="F71" s="3" t="s">
+        <v>857</v>
+      </c>
+      <c r="G71" s="8" t="s">
+        <v>2</v>
+      </c>
       <c r="H71" s="8"/>
       <c r="I71" s="3"/>
       <c r="J71" s="3"/>
@@ -6447,13 +6453,13 @@
         <v>71</v>
       </c>
       <c r="D72" s="7" t="s">
-        <v>815</v>
+        <v>874</v>
       </c>
       <c r="E72" s="3" t="s">
         <v>856</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>857</v>
+        <v>82</v>
       </c>
       <c r="G72" s="8" t="s">
         <v>2</v>
@@ -6471,18 +6477,20 @@
         <v>72</v>
       </c>
       <c r="D73" s="7" t="s">
+        <v>874</v>
+      </c>
+      <c r="E73" s="8" t="s">
         <v>875</v>
       </c>
-      <c r="E73" s="3" t="s">
-        <v>856</v>
-      </c>
-      <c r="F73" s="3" t="s">
-        <v>82</v>
+      <c r="F73" s="8" t="s">
+        <v>296</v>
       </c>
       <c r="G73" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="H73" s="8"/>
+        <v>56</v>
+      </c>
+      <c r="H73" s="8" t="s">
+        <v>836</v>
+      </c>
       <c r="I73" s="3"/>
       <c r="J73" s="3"/>
       <c r="K73" s="3"/>
@@ -6495,13 +6503,13 @@
         <v>73</v>
       </c>
       <c r="D74" s="7" t="s">
+        <v>874</v>
+      </c>
+      <c r="E74" s="8" t="s">
         <v>875</v>
       </c>
-      <c r="E74" s="8" t="s">
-        <v>876</v>
-      </c>
       <c r="F74" s="8" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="G74" s="8" t="s">
         <v>2</v>
@@ -6519,18 +6527,20 @@
         <v>74</v>
       </c>
       <c r="D75" s="7" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="E75" s="8" t="s">
-        <v>876</v>
+        <v>298</v>
       </c>
       <c r="F75" s="8" t="s">
-        <v>288</v>
+        <v>306</v>
       </c>
       <c r="G75" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="H75" s="8"/>
+        <v>13</v>
+      </c>
+      <c r="H75" s="8" t="s">
+        <v>896</v>
+      </c>
       <c r="I75" s="3"/>
       <c r="J75" s="3"/>
       <c r="K75" s="3"/>
@@ -6543,20 +6553,18 @@
         <v>75</v>
       </c>
       <c r="D76" s="7" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="E76" s="8" t="s">
         <v>298</v>
       </c>
       <c r="F76" s="8" t="s">
-        <v>306</v>
+        <v>870</v>
       </c>
       <c r="G76" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="H76" s="8" t="s">
-        <v>882</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H76" s="8"/>
       <c r="I76" s="3"/>
       <c r="J76" s="3"/>
       <c r="K76" s="3"/>
@@ -6569,13 +6577,13 @@
         <v>76</v>
       </c>
       <c r="D77" s="7" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="E77" s="8" t="s">
-        <v>298</v>
+        <v>877</v>
       </c>
       <c r="F77" s="8" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="G77" s="8" t="s">
         <v>2</v>
@@ -6593,10 +6601,10 @@
         <v>77</v>
       </c>
       <c r="D78" s="7" t="s">
+        <v>874</v>
+      </c>
+      <c r="E78" s="8" t="s">
         <v>875</v>
-      </c>
-      <c r="E78" s="8" t="s">
-        <v>878</v>
       </c>
       <c r="F78" s="8" t="s">
         <v>871</v>
@@ -6617,13 +6625,13 @@
         <v>78</v>
       </c>
       <c r="D79" s="7" t="s">
-        <v>875</v>
-      </c>
-      <c r="E79" s="8" t="s">
-        <v>876</v>
+        <v>874</v>
+      </c>
+      <c r="E79" s="3" t="s">
+        <v>856</v>
       </c>
       <c r="F79" s="8" t="s">
-        <v>872</v>
+        <v>26</v>
       </c>
       <c r="G79" s="8" t="s">
         <v>2</v>
@@ -6641,16 +6649,16 @@
         <v>79</v>
       </c>
       <c r="D80" s="7" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="E80" s="3" t="s">
         <v>856</v>
       </c>
-      <c r="F80" s="8" t="s">
-        <v>26</v>
+      <c r="F80" s="3" t="s">
+        <v>102</v>
       </c>
       <c r="G80" s="8" t="s">
-        <v>2</v>
+        <v>103</v>
       </c>
       <c r="H80" s="8"/>
       <c r="I80" s="3"/>
@@ -6665,41 +6673,41 @@
         <v>80</v>
       </c>
       <c r="D81" s="7" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="E81" s="3" t="s">
         <v>856</v>
       </c>
-      <c r="F81" s="8" t="s">
-        <v>886</v>
+      <c r="F81" s="3" t="s">
+        <v>102</v>
       </c>
       <c r="G81" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="H81" s="8"/>
-      <c r="I81" s="3"/>
+        <v>57</v>
+      </c>
+      <c r="H81" s="8">
+        <v>3</v>
+      </c>
+      <c r="I81" s="3" t="s">
+        <v>897</v>
+      </c>
       <c r="J81" s="3"/>
       <c r="K81" s="3"/>
       <c r="L81" s="3"/>
       <c r="M81" s="3"/>
       <c r="N81" s="5"/>
     </row>
-    <row r="82" spans="3:14">
+    <row r="82" spans="3:14" ht="15">
       <c r="C82" s="3">
         <v>81</v>
       </c>
-      <c r="D82" s="7" t="s">
-        <v>875</v>
-      </c>
-      <c r="E82" s="3" t="s">
-        <v>856</v>
-      </c>
-      <c r="F82" s="8" t="s">
-        <v>880</v>
-      </c>
-      <c r="G82" s="8" t="s">
+      <c r="D82" s="16" t="s">
         <v>887</v>
       </c>
+      <c r="E82" s="17" t="s">
+        <v>888</v>
+      </c>
+      <c r="F82" s="8"/>
+      <c r="G82" s="8"/>
       <c r="H82" s="8"/>
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
@@ -6712,19 +6720,19 @@
       <c r="C83" s="3">
         <v>82</v>
       </c>
-      <c r="D83" s="7" t="s">
-        <v>875</v>
+      <c r="D83" s="15" t="s">
+        <v>882</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>856</v>
-      </c>
-      <c r="F83" s="8" t="s">
-        <v>888</v>
-      </c>
-      <c r="G83" s="8" t="s">
-        <v>887</v>
-      </c>
-      <c r="H83" s="8"/>
+        <v>620</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="G83" s="3"/>
+      <c r="H83" s="3" t="s">
+        <v>883</v>
+      </c>
       <c r="I83" s="3"/>
       <c r="J83" s="3"/>
       <c r="K83" s="3"/>
@@ -6737,41 +6745,41 @@
         <v>83</v>
       </c>
       <c r="D84" s="7" t="s">
-        <v>873</v>
+        <v>815</v>
       </c>
       <c r="E84" s="3" t="s">
         <v>856</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>102</v>
+        <v>857</v>
       </c>
       <c r="G84" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="H84" s="8">
-        <v>3</v>
-      </c>
-      <c r="I84" s="3" t="s">
-        <v>900</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H84" s="8"/>
+      <c r="I84" s="3"/>
       <c r="J84" s="3"/>
       <c r="K84" s="3"/>
       <c r="L84" s="3"/>
       <c r="M84" s="3"/>
       <c r="N84" s="5"/>
     </row>
-    <row r="85" spans="3:14" ht="15">
+    <row r="85" spans="3:14">
       <c r="C85" s="3">
         <v>84</v>
       </c>
-      <c r="D85" s="16" t="s">
-        <v>896</v>
-      </c>
-      <c r="E85" s="17" t="s">
-        <v>897</v>
-      </c>
-      <c r="F85" s="8"/>
-      <c r="G85" s="8"/>
+      <c r="D85" s="7" t="s">
+        <v>874</v>
+      </c>
+      <c r="E85" s="3" t="s">
+        <v>856</v>
+      </c>
+      <c r="F85" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="G85" s="8" t="s">
+        <v>2</v>
+      </c>
       <c r="H85" s="8"/>
       <c r="I85" s="3"/>
       <c r="J85" s="3"/>
@@ -6784,19 +6792,19 @@
       <c r="C86" s="3">
         <v>85</v>
       </c>
-      <c r="D86" s="15" t="s">
-        <v>889</v>
-      </c>
-      <c r="E86" s="3" t="s">
-        <v>620</v>
-      </c>
-      <c r="F86" s="3" t="s">
-        <v>627</v>
-      </c>
-      <c r="G86" s="3"/>
-      <c r="H86" s="3" t="s">
-        <v>890</v>
-      </c>
+      <c r="D86" s="7" t="s">
+        <v>874</v>
+      </c>
+      <c r="E86" s="8" t="s">
+        <v>875</v>
+      </c>
+      <c r="F86" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="G86" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="H86" s="8"/>
       <c r="I86" s="3"/>
       <c r="J86" s="3"/>
       <c r="K86" s="3"/>
@@ -6809,13 +6817,13 @@
         <v>86</v>
       </c>
       <c r="D87" s="7" t="s">
-        <v>815</v>
-      </c>
-      <c r="E87" s="3" t="s">
-        <v>856</v>
-      </c>
-      <c r="F87" s="3" t="s">
-        <v>857</v>
+        <v>874</v>
+      </c>
+      <c r="E87" s="8" t="s">
+        <v>875</v>
+      </c>
+      <c r="F87" s="8" t="s">
+        <v>288</v>
       </c>
       <c r="G87" s="8" t="s">
         <v>2</v>
@@ -6833,18 +6841,20 @@
         <v>87</v>
       </c>
       <c r="D88" s="7" t="s">
-        <v>875</v>
-      </c>
-      <c r="E88" s="3" t="s">
-        <v>856</v>
-      </c>
-      <c r="F88" s="3" t="s">
-        <v>82</v>
+        <v>874</v>
+      </c>
+      <c r="E88" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="F88" s="8" t="s">
+        <v>306</v>
       </c>
       <c r="G88" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="H88" s="8"/>
+        <v>13</v>
+      </c>
+      <c r="H88" s="8" t="s">
+        <v>889</v>
+      </c>
       <c r="I88" s="3"/>
       <c r="J88" s="3"/>
       <c r="K88" s="3"/>
@@ -6857,13 +6867,13 @@
         <v>88</v>
       </c>
       <c r="D89" s="7" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="E89" s="8" t="s">
-        <v>876</v>
+        <v>298</v>
       </c>
       <c r="F89" s="8" t="s">
-        <v>292</v>
+        <v>870</v>
       </c>
       <c r="G89" s="8" t="s">
         <v>2</v>
@@ -6881,13 +6891,13 @@
         <v>89</v>
       </c>
       <c r="D90" s="7" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="E90" s="8" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="F90" s="8" t="s">
-        <v>288</v>
+        <v>870</v>
       </c>
       <c r="G90" s="8" t="s">
         <v>2</v>
@@ -6905,20 +6915,18 @@
         <v>90</v>
       </c>
       <c r="D91" s="7" t="s">
+        <v>874</v>
+      </c>
+      <c r="E91" s="8" t="s">
         <v>875</v>
       </c>
-      <c r="E91" s="8" t="s">
-        <v>298</v>
-      </c>
       <c r="F91" s="8" t="s">
-        <v>306</v>
+        <v>871</v>
       </c>
       <c r="G91" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="H91" s="8" t="s">
-        <v>898</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H91" s="8"/>
       <c r="I91" s="3"/>
       <c r="J91" s="3"/>
       <c r="K91" s="3"/>
@@ -6931,13 +6939,13 @@
         <v>91</v>
       </c>
       <c r="D92" s="7" t="s">
-        <v>875</v>
-      </c>
-      <c r="E92" s="8" t="s">
-        <v>298</v>
-      </c>
-      <c r="F92" s="8" t="s">
-        <v>871</v>
+        <v>815</v>
+      </c>
+      <c r="E92" s="3" t="s">
+        <v>856</v>
+      </c>
+      <c r="F92" s="3" t="s">
+        <v>857</v>
       </c>
       <c r="G92" s="8" t="s">
         <v>2</v>
@@ -6955,13 +6963,13 @@
         <v>92</v>
       </c>
       <c r="D93" s="7" t="s">
-        <v>875</v>
-      </c>
-      <c r="E93" s="8" t="s">
-        <v>878</v>
-      </c>
-      <c r="F93" s="8" t="s">
-        <v>871</v>
+        <v>815</v>
+      </c>
+      <c r="E93" s="3" t="s">
+        <v>856</v>
+      </c>
+      <c r="F93" s="3" t="s">
+        <v>858</v>
       </c>
       <c r="G93" s="8" t="s">
         <v>2</v>
@@ -6979,18 +6987,20 @@
         <v>93</v>
       </c>
       <c r="D94" s="7" t="s">
-        <v>875</v>
+        <v>815</v>
       </c>
       <c r="E94" s="8" t="s">
-        <v>876</v>
+        <v>859</v>
       </c>
       <c r="F94" s="8" t="s">
-        <v>872</v>
+        <v>667</v>
       </c>
       <c r="G94" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="H94" s="8"/>
+        <v>56</v>
+      </c>
+      <c r="H94" s="8" t="s">
+        <v>862</v>
+      </c>
       <c r="I94" s="3"/>
       <c r="J94" s="3"/>
       <c r="K94" s="3"/>
@@ -7005,11 +7015,11 @@
       <c r="D95" s="7" t="s">
         <v>815</v>
       </c>
-      <c r="E95" s="3" t="s">
-        <v>856</v>
-      </c>
-      <c r="F95" s="3" t="s">
-        <v>857</v>
+      <c r="E95" s="8" t="s">
+        <v>859</v>
+      </c>
+      <c r="F95" s="8" t="s">
+        <v>213</v>
       </c>
       <c r="G95" s="8" t="s">
         <v>2</v>
@@ -7029,16 +7039,18 @@
       <c r="D96" s="7" t="s">
         <v>815</v>
       </c>
-      <c r="E96" s="3" t="s">
-        <v>856</v>
-      </c>
-      <c r="F96" s="3" t="s">
-        <v>858</v>
+      <c r="E96" s="8" t="s">
+        <v>859</v>
+      </c>
+      <c r="F96" s="8" t="s">
+        <v>667</v>
       </c>
       <c r="G96" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="H96" s="8"/>
+        <v>56</v>
+      </c>
+      <c r="H96" s="8" t="s">
+        <v>896</v>
+      </c>
       <c r="I96" s="3"/>
       <c r="J96" s="3"/>
       <c r="K96" s="3"/>
@@ -7057,14 +7069,12 @@
         <v>859</v>
       </c>
       <c r="F97" s="8" t="s">
-        <v>667</v>
+        <v>213</v>
       </c>
       <c r="G97" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="H97" s="8" t="s">
-        <v>862</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H97" s="8"/>
       <c r="I97" s="3"/>
       <c r="J97" s="3"/>
       <c r="K97" s="3"/>
@@ -7083,7 +7093,7 @@
         <v>859</v>
       </c>
       <c r="F98" s="8" t="s">
-        <v>213</v>
+        <v>100</v>
       </c>
       <c r="G98" s="8" t="s">
         <v>2</v>
@@ -7096,83 +7106,9 @@
       <c r="M98" s="3"/>
       <c r="N98" s="5"/>
     </row>
-    <row r="99" spans="3:14">
-      <c r="C99" s="3">
-        <v>98</v>
-      </c>
-      <c r="D99" s="7" t="s">
-        <v>815</v>
-      </c>
-      <c r="E99" s="8" t="s">
-        <v>859</v>
-      </c>
-      <c r="F99" s="8" t="s">
-        <v>667</v>
-      </c>
-      <c r="G99" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="H99" s="8" t="s">
-        <v>882</v>
-      </c>
-      <c r="I99" s="3"/>
-      <c r="J99" s="3"/>
-      <c r="K99" s="3"/>
-      <c r="L99" s="3"/>
-      <c r="M99" s="3"/>
-      <c r="N99" s="5"/>
-    </row>
-    <row r="100" spans="3:14">
-      <c r="C100" s="3">
-        <v>99</v>
-      </c>
-      <c r="D100" s="7" t="s">
-        <v>815</v>
-      </c>
-      <c r="E100" s="8" t="s">
-        <v>859</v>
-      </c>
-      <c r="F100" s="8" t="s">
-        <v>213</v>
-      </c>
-      <c r="G100" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="H100" s="8"/>
-      <c r="I100" s="3"/>
-      <c r="J100" s="3"/>
-      <c r="K100" s="3"/>
-      <c r="L100" s="3"/>
-      <c r="M100" s="3"/>
-      <c r="N100" s="5"/>
-    </row>
-    <row r="101" spans="3:14">
-      <c r="C101" s="3">
-        <v>100</v>
-      </c>
-      <c r="D101" s="7" t="s">
-        <v>815</v>
-      </c>
-      <c r="E101" s="8" t="s">
-        <v>859</v>
-      </c>
-      <c r="F101" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="G101" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="H101" s="8"/>
-      <c r="I101" s="3"/>
-      <c r="J101" s="3"/>
-      <c r="K101" s="3"/>
-      <c r="L101" s="3"/>
-      <c r="M101" s="3"/>
-      <c r="N101" s="5"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="N2:N94">
+  <conditionalFormatting sqref="N2:N91">
     <cfRule type="cellIs" dxfId="7" priority="11" stopIfTrue="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
@@ -7180,7 +7116,7 @@
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N95:N98">
+  <conditionalFormatting sqref="N92:N95">
     <cfRule type="cellIs" dxfId="5" priority="5" stopIfTrue="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
@@ -7188,7 +7124,7 @@
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N99:N100">
+  <conditionalFormatting sqref="N96:N97">
     <cfRule type="cellIs" dxfId="3" priority="3" stopIfTrue="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
@@ -7196,7 +7132,7 @@
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N101">
+  <conditionalFormatting sqref="N98">
     <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
@@ -7205,18 +7141,18 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G101">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G98">
       <formula1>INDIRECT(SUBSTITUTE(E3&amp;F3," ",""))</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F101">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F98">
       <formula1>OFFSET(INDIRECT($E3),0,0,COUNTA(INDIRECT(E3&amp;"Col")),1)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E101">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E98">
       <formula1>Forms</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="I58" r:id="rId1" display="http://10.146.80.51/"/>
+    <hyperlink ref="I57" r:id="rId1" display="http://10.146.80.51/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/NformTester/NformTester/keywordscripts/TST969_AddAndCopyView.xlsx
+++ b/NformTester/NformTester/keywordscripts/TST969_AddAndCopyView.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="105" windowWidth="15480" windowHeight="9570"/>
@@ -1259,7 +1259,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7924" uniqueCount="899">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7924" uniqueCount="900">
   <si>
     <t>FormLogin_to_LiebertR_Nform</t>
   </si>
@@ -4035,6 +4035,10 @@
   <si>
     <t>"view1"</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ClickCell</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4587,7 +4591,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -5987,13 +5991,17 @@
         <v>859</v>
       </c>
       <c r="F53" s="8" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="G53" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="H53" s="8"/>
-      <c r="I53" s="3"/>
+        <v>899</v>
+      </c>
+      <c r="H53" s="8">
+        <v>1</v>
+      </c>
+      <c r="I53" s="3">
+        <v>0</v>
+      </c>
       <c r="J53" s="3"/>
       <c r="K53" s="3"/>
       <c r="L53" s="3"/>
